--- a/examples/neutralization-submission-invalid-highlighted.xlsx
+++ b/examples/neutralization-submission-invalid-highlighted.xlsx
@@ -594,7 +594,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B100" type="list">
-      <formula1>=Terminology!A2:A4</formula1>
+      <formula1>=Terminology!$A$2:$A$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/examples/neutralization-submission-invalid-highlighted.xlsx
+++ b/examples/neutralization-submission-invalid-highlighted.xlsx
@@ -77,27 +77,22 @@
   <commentList>
     <comment authorId="0" ref="A3" shapeId="0">
       <text>
-        <t>Missing required value 'Antibody name'</t>
+        <t>Missing required value for 'Antibody name'</t>
       </text>
     </comment>
     <comment authorId="0" ref="A4" shapeId="0">
       <text>
-        <t>Duplicate antibody name 'Acme mAb 1' is not allowed</t>
+        <t>Duplicate value 'COVIC 1' is not allowed for 'Antibody name'</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>Missing required value 'Qualitative measure'</t>
+        <t>'postive' is not a recognized value for 'Qualitative measure'</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
         <t>'intermediate' is not a recognized value for 'Qualitative measure'</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>'postive' is not a recognized value for 'Qualitative measure'</t>
       </text>
     </comment>
   </commentList>
@@ -482,7 +477,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acme mAb 1</t>
+          <t>COVIC 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +497,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Acme mAb 1</t>
+          <t>COVIC 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,7 +509,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acme mAb 4</t>
+          <t>COVIC 4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -526,15 +521,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acme mAb 5</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr"/>
+          <t>COVIC 5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>postive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Acme mAb 6</t>
+          <t>COVIC 6</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -546,50 +545,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Acme mAb 7</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>postive</t>
-        </is>
-      </c>
+          <t>COVIC 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acme mAb 8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
+          <t>COVIC 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acme mAb 9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
+          <t>COVIC 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Acme mAb 10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
+          <t>COVIC 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/examples/neutralization-submission-invalid-highlighted.xlsx
+++ b/examples/neutralization-submission-invalid-highlighted.xlsx
@@ -75,11 +75,6 @@
     <author>Validation service</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Missing required value for 'Antibody name'</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="A4" shapeId="0">
       <text>
         <t>Duplicate value 'COVIC 1' is not allowed for 'Antibody name'</t>
@@ -88,6 +83,11 @@
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
         <t>'postive' is not a recognized value for 'Qualitative measure'</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6" shapeId="0">
+      <text>
+        <t>'none' is not of type 'float'</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
@@ -388,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,13 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>- Qualitative measure: The qualitative assay result.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>- Titer: The concentration</t>
         </is>
       </c>
     </row>
@@ -449,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -460,6 +467,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15"/>
     <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,6 +481,11 @@
           <t>Qualitative measure</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Titer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -485,12 +498,22 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>negative</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.2</t>
         </is>
       </c>
     </row>
@@ -505,6 +528,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +545,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,6 +562,11 @@
           <t>postive</t>
         </is>
       </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -541,6 +579,11 @@
           <t>intermediate</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -549,6 +592,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -557,6 +601,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -565,6 +610,7 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -573,6 +619,7 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/examples/neutralization-submission-invalid-highlighted.xlsx
+++ b/examples/neutralization-submission-invalid-highlighted.xlsx
@@ -75,6 +75,11 @@
     <author>Validation service</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Missing required value for 'Antibody name'</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A4" shapeId="0">
       <text>
         <t>Duplicate value 'COVIC 1' is not allowed for 'Antibody name'</t>
@@ -87,7 +92,7 @@
     </comment>
     <comment authorId="0" ref="C6" shapeId="0">
       <text>
-        <t>'none' is not of type 'float'</t>
+        <t>'none' is not of type 'float' in 'Titer'</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
@@ -505,7 +510,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>negative</t>

--- a/examples/neutralization-submission-invalid-highlighted.xlsx
+++ b/examples/neutralization-submission-invalid-highlighted.xlsx
@@ -77,12 +77,12 @@
   <commentList>
     <comment authorId="0" ref="A3" shapeId="0">
       <text>
-        <t>Missing required value for 'Antibody name'</t>
+        <t>Missing required value for 'Antibody label'</t>
       </text>
     </comment>
     <comment authorId="0" ref="A4" shapeId="0">
       <text>
-        <t>Duplicate value 'COVIC 1' is not allowed for 'Antibody name'</t>
+        <t>Duplicate value 'COVIC 1' is not allowed for 'Antibody label'</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
@@ -431,7 +431,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Antibody name: The antibody's CoVIC ID.</t>
+          <t>- Antibody label: The antibody's CoVIC ID.</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Antibody name</t>
+          <t>Antibody label</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
